--- a/experiment result cnn/8192_0.0_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/8192_0.0_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005988634048560757</v>
+        <v>0.01025173495798554</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01584618287210949</v>
+        <v>0.007427052279737246</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009968146450900202</v>
+        <v>0.01105986932101803</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003666598139496437</v>
+        <v>0.02326070857695338</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002648008613366651</v>
+        <v>0.0191783778833795</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01340717954591691</v>
+        <v>0.0140971692756058</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01125387819360443</v>
+        <v>0.01126228975694036</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006533621651989821</v>
+        <v>0.006017681223886153</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008451731337909893</v>
+        <v>0.01247615556305312</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01036340582529604</v>
+        <v>0.01490896185338184</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.002490905748032802</v>
+        <v>0.01490874215379102</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003419675229006431</v>
+        <v>0.009645602265729629</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007295346837324645</v>
+        <v>0.01207114536816239</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004346879781591094</v>
+        <v>0.006621520703826383</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002709107574141856</v>
+        <v>0.006420095925706031</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.008372814627368502</v>
+        <v>0.01004931815855681</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.007533669968291635</v>
+        <v>0.01025166833073747</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0113375658404917</v>
+        <v>0.01025126828720709</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.007776951282541649</v>
+        <v>0.02203652393772066</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.004527056433202985</v>
+        <v>0.008838316266924624</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01085055260747392</v>
+        <v>0.01409738510486776</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01510052656906631</v>
+        <v>0.01227383802029598</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.004442236347240216</v>
+        <v>0.01999475810767605</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00808815554584974</v>
+        <v>0.02244495083455354</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01087983682977794</v>
+        <v>0.02162833506791666</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006336335896318171</v>
+        <v>0.004811269234398367</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.001437602700875279</v>
+        <v>0.006420158861689647</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.007260343559677299</v>
+        <v>0.01186863218592451</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01246467225173887</v>
+        <v>0.0130838336812521</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.005662068052105501</v>
+        <v>0.02551586622629414</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.008720462995118519</v>
+        <v>0.01328616681089553</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00606355681775622</v>
+        <v>0.01126222187327995</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.004964971583945655</v>
+        <v>0.004007629453071793</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01055850284223173</v>
+        <v>0.02346649559754398</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.007591275952596436</v>
+        <v>0.009241256447829133</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01938756675365038</v>
+        <v>0.01227404568249315</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.004060067024021432</v>
+        <v>0.005615425772318282</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.001229314180703342</v>
+        <v>0.0175507644770278</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.004036145392562036</v>
+        <v>0.01632896431510766</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01422672128210099</v>
+        <v>0.008435009375932827</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01012733822394812</v>
+        <v>0.01938333004665746</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.009217527698162874</v>
+        <v>0.01450327464640368</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.002455087713853104</v>
+        <v>0.005414264485934665</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.006469161778017708</v>
+        <v>0.005012062559194104</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.002029924540896044</v>
+        <v>0.01308327000378597</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.002682991291513789</v>
+        <v>0.01572050839426554</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.005994889692021325</v>
+        <v>0.005816377356691203</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.009940347628860251</v>
+        <v>0.02531095587122447</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.008306206263363045</v>
+        <v>0.01673741265245822</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.006522259666497677</v>
+        <v>0.01450233064093897</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.009541712833158656</v>
+        <v>0.0407792453852652</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00143704631710822</v>
+        <v>0.0191755150082492</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02521190575891636</v>
+        <v>0.007829961108053656</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02361395830912131</v>
+        <v>0.03354009251889973</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02172006363293251</v>
+        <v>0.02859298397924069</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.005290672019599007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02190296979505878</v>
+        <v>0.01592319066686763</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.001714657091628128</v>
+        <v>0.02489829475210064</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.003022444055852315</v>
+        <v>0.05543933225644786</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.001458610769808029</v>
+        <v>0.008232382104107623</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01494117412985048</v>
+        <v>0.0337472974558805</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01804286655204887</v>
+        <v>0.02121866587510364</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0002644536342095048</v>
+        <v>0.07114244676031103</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.003258862919222292</v>
+        <v>0.003203714062520211</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005377198623789256</v>
+        <v>0.03146743433658285</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0004921750278920009</v>
+        <v>0.01267556522940407</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.008620865286293475</v>
+        <v>0.0524781899630443</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.001947687984775586</v>
+        <v>0.01897110949564491</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02401195465823891</v>
+        <v>0.01409608818256569</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001004411210142772</v>
+        <v>0.01470441888301403</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01047469107163745</v>
+        <v>0.03312594440329651</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.004602285458726128</v>
+        <v>0.008030637341112659</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.007967315567804658</v>
+        <v>0.05183533884989257</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0141820987206318</v>
+        <v>0.0216254658255099</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.004629760522402212</v>
+        <v>0.004206412722179914</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.02342251421345027</v>
+        <v>0.003405411941558841</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01346796650906774</v>
+        <v>0.02592482183431448</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.006879334046113746</v>
+        <v>0.005010073111606459</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.00226708859419911</v>
+        <v>0.002001273008247258</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0006270730440217032</v>
+        <v>0.01308150267657049</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01025120740362711</v>
+        <v>0.007826024359892938</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.00224083350723099</v>
+        <v>0.02387637419430033</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.001981856983584495</v>
+        <v>0.01288097700973228</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01125232238071088</v>
+        <v>0.007628038953785782</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0007685126293470693</v>
+        <v>0.01836146888802299</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.001022383692758157</v>
+        <v>0.01085688258668305</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01350111679316669</v>
+        <v>0.01897493532072941</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0004966287388778417</v>
+        <v>0.04537299828490204</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.005849697025803868</v>
+        <v>0.03477533085604346</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01027127041868794</v>
+        <v>0.03291681505184599</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.009392572559364806</v>
+        <v>0.02756534087237706</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002256067747420379</v>
+        <v>0.00702341315309</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0215793479852952</v>
+        <v>0.02510282090369891</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.003078893315903225</v>
+        <v>0.04348594258005942</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0283852255686109</v>
+        <v>0.02285379837541999</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.008281139762861106</v>
+        <v>0.02612746490365484</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.002141939168927604</v>
+        <v>0.04558216170733315</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.005800044361242813</v>
+        <v>0.03291254416408065</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.002521060188127557</v>
+        <v>0.01877048069039991</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0005992668983001375</v>
+        <v>0.001600554677058302</v>
       </c>
     </row>
   </sheetData>
